--- a/src/test/resources/IF0001/UT0001/UT0001_After_H2_DB001.xlsx
+++ b/src/test/resources/IF0001/UT0001/UT0001_After_H2_DB001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14775" windowHeight="9705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16875" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="employee" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2014-08-22 15:23:51</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Hoge Fugao</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -38,6 +34,10 @@
   </si>
   <si>
     <t>BIRTHDAY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ignore]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -415,10 +415,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -426,13 +426,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
